--- a/assets/disciplinas/LOB1008.xlsx
+++ b/assets/disciplinas/LOB1008.xlsx
@@ -80,7 +80,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>948230 - Francisco Sodero Toledo</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/assets/disciplinas/LOB1008.xlsx
+++ b/assets/disciplinas/LOB1008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar aos estudantes dos cursos de Engenharia da Escola de Engenharia de Lorena o contato com os fundamentos básicos das Ciências Humanas ou Sociais e estimular a reflexão sobre o desenvolvimento científico-tecnológico no mundo contemporâneo e seus reflexos na vida do homem no planeta e na sociedade brasileira em tempos de globalização.
-Procurar assim, complementar a formação dos mesmos, capacitando-os para utilizar os conhecimentos adquiridos no seu contexto social, no exercício profissional, com competência, criatividade e com amplo entendimento da sua ação como cidadão responsável e solidário.</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -80,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6376612 - Daisy Rafaela da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução às Ciências Sociais. A sociedade do conhecimento. o homem na sociedade Emergente. Globalização e a realidade brasileira.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,24 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução às Ciências Sociais
-- a posição das Ciências Sociais no quadro das ciências 
-- o papel das Ciências Sociais na atualidade;
-2 - A Sociedade do Conhecimento 
-- A evolução do conhecimento 
-- O paradigma científico e a revolução científica- tecnológica
-- Mudanças no paradigma científico
-- A questão sócio-ambiental
-3 -  O homem na sociedade emergente
-- ética nas relações humanas
-- liderança pessoal e profissional
-4 - Globalização e a realidade brasileira
-- o sistema hegemônico : o neoliberalismo;
-- a globalização econômica
-- a globalização social 
-- a sociedade civil globalizada</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -122,38 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>(PS+T) / 2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>-  Trabalho escrito, com questionamento, envolvendo o conteúdo do programa 
 -   prova escrita</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>01  Constituição da República Federativa do Brasil
-02  Código de Ética do Engenheiro, CREA: 2002.
-03 -  CAPRA, F.   A Teia da Vida.  São Paulo: Cultrix, 2003.
-03  CASTELLS, Manuel. O Poder da Identidade. A Era da Informação: Economia, Sociedade e Cultura. Vol. 2 . São Paulo: Paz e Terra, 1999.
-04  - HUNTER, James C.  O Monge e o Executivo: uma história sobre a essência da liderança.  Rio de Janeiro: Sextante, 2004.
-05  NOVAES, Adauto ( org.) Ética. São Paulo: Secretaria Municipal de Cultura e Companhia das Letras, 1992.
-07  SADER, Emir. A Vingança da História. São Paulo: Boitempo-Editorial, 2003.
-08  SANTOS, Boaventura de. Um Discurso sobre as Ciências. Porto, Portugal: Afrontamentos, 1997.
-10 -  SCHAEFER, Richard T.  Sociologia. 6ª. Ed.; São Paulo: McGraw-Hill, 2006.
-11  SODERO TOLEDO, Francisco. Outros Caminhos : Vale do Paraíba, do regional ao  internacional, do global ao local. São Paulo, Editora Salesiana, 2001.
-_____________  Eu,Tu,Nós  Ética e Cidadania para jovens. Cachoeira Paulista, São Paulo: Ed. Canção Nova, 2005
-Artigos de revistas especializadas e de jornais; 
-Estudos, artigos, notícias e pesquisas via internet.</t>
   </si>
 </sst>
 </file>
@@ -509,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,93 +597,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1008.xlsx
+++ b/assets/disciplinas/LOB1008.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-3,EM-2,EA-8,EB-8,EP-10,EQD-2,EQN-5</t>
+    <t>EF-1,EM-2,EA-8,EB-8,EP-10,EQD-2,EQN-5</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1008.xlsx
+++ b/assets/disciplinas/LOB1008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,23 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar aos estudantes dos cursos de Engenharia da Escola de Engenharia de Lorena o contato com os fundamentos básicos das Ciências Humanas ou Sociais e estimular a reflexão sobre o desenvolvimento científico-tecnológico no mundo contemporâneo e seus reflexos na vida do homem no planeta e na sociedade brasileira em tempos de globalização.
+Procurar assim, complementar a formação dos mesmos, capacitando-os para utilizar os conhecimentos adquiridos no seu contexto social, no exercício profissional, com competência, criatividade e com amplo entendimento da sua ação como cidadão responsável e solidário.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução às Ciências Sociais. A sociedade do conhecimento. o homem na sociedade Emergente. Globalização e a realidade brasileira.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +95,24 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução às Ciências Sociais
+- a posição das Ciências Sociais no quadro das ciências 
+- o papel das Ciências Sociais na atualidade;
+2 - A Sociedade do Conhecimento 
+- A evolução do conhecimento 
+- O paradigma científico e a revolução científica- tecnológica
+- Mudanças no paradigma científico
+- A questão sócio-ambiental
+3 -  O homem na sociedade emergente
+- ética nas relações humanas
+- liderança pessoal e profissional
+4 - Globalização e a realidade brasileira
+- o sistema hegemônico : o neoliberalismo;
+- a globalização econômica
+- a globalização social 
+- a sociedade civil globalizada</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +122,38 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
+    <t>(PS+T) / 2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
-  </si>
-  <si>
-    <t>(PS+T) / 2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
   </si>
   <si>
     <t>-  Trabalho escrito, com questionamento, envolvendo o conteúdo do programa 
 -   prova escrita</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>01  Constituição da República Federativa do Brasil
+02  Código de Ética do Engenheiro, CREA: 2002.
+03 -  CAPRA, F.   A Teia da Vida.  São Paulo: Cultrix, 2003.
+03  CASTELLS, Manuel. O Poder da Identidade. A Era da Informação: Economia, Sociedade e Cultura. Vol. 2 . São Paulo: Paz e Terra, 1999.
+04  - HUNTER, James C.  O Monge e o Executivo: uma história sobre a essência da liderança.  Rio de Janeiro: Sextante, 2004.
+05  NOVAES, Adauto ( org.) Ética. São Paulo: Secretaria Municipal de Cultura e Companhia das Letras, 1992.
+07  SADER, Emir. A Vingança da História. São Paulo: Boitempo-Editorial, 2003.
+08  SANTOS, Boaventura de. Um Discurso sobre as Ciências. Porto, Portugal: Afrontamentos, 1997.
+10 -  SCHAEFER, Richard T.  Sociologia. 6ª. Ed.; São Paulo: McGraw-Hill, 2006.
+11  SODERO TOLEDO, Francisco. Outros Caminhos : Vale do Paraíba, do regional ao  internacional, do global ao local. São Paulo, Editora Salesiana, 2001.
+_____________  Eu,Tu,Nós  Ética e Cidadania para jovens. Cachoeira Paulista, São Paulo: Ed. Canção Nova, 2005
+Artigos de revistas especializadas e de jornais; 
+Estudos, artigos, notícias e pesquisas via internet.</t>
   </si>
 </sst>
 </file>
@@ -472,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -597,85 +634,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
